--- a/biology/Zoologie/Crotaphytus_collaris/Crotaphytus_collaris.xlsx
+++ b/biology/Zoologie/Crotaphytus_collaris/Crotaphytus_collaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lézard à collier (Crotaphytus collaris) est une espèce de sauriens de la famille des Crotaphytidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lézard à collier (Crotaphytus collaris) est une espèce de sauriens de la famille des Crotaphytidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Mexique en Basse-Californie, au Sonora, au Chihuahua, au Durango, au Coahuila, au Zacatecas, au Nuevo León et au Tamaulipas ;
 aux États-Unis au Texas, au Nouveau-Mexique, en Arizona, au Nevada, en Utah, au Colorado, en Oklahoma, au Kansas, au Missouri, en Illinois et en Arkansas.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce lézard atteint environ 30 à 35 centimètres (queue comprise). Il a une large tête, des membres bien développés avec des doigts longs et pourvus de griffes. Le corps est assez aplati et large. Crotaphytus collaris possède un collier noir autour du cou, caractéristique. La tête du mâle peut être jaune ou orange vif. Le reste de la livrée est colorée, avec une dominance de bleu azur, vert et gris, parsemée de taches jaunes ou grisâtres[2]. Cette livrée peut être assez variée selon les sous-espèces. La femelle présente en général des couleurs plus ternes dans les bruns, sauf lorsqu'elle est en période de ponte, où apparaissent des taches et des traits rouge-orangé sur la gorge et le flanc[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce lézard atteint environ 30 à 35 centimètres (queue comprise). Il a une large tête, des membres bien développés avec des doigts longs et pourvus de griffes. Le corps est assez aplati et large. Crotaphytus collaris possède un collier noir autour du cou, caractéristique. La tête du mâle peut être jaune ou orange vif. Le reste de la livrée est colorée, avec une dominance de bleu azur, vert et gris, parsemée de taches jaunes ou grisâtres. Cette livrée peut être assez variée selon les sous-espèces. La femelle présente en général des couleurs plus ternes dans les bruns, sauf lorsqu'elle est en période de ponte, où apparaissent des taches et des traits rouge-orangé sur la gorge et le flanc.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce reptile diurne est très agile.
 </t>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 juillet 2012)[4], ce reptile est représenté par 5 sous-espèces :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 juillet 2012), ce reptile est représenté par 5 sous-espèces :
 Crotaphytus collaris auriceps Fitch &amp; Tanner, 1951 ;
 Crotaphytus collaris baileyi Stejneger, 1890 ;
 Crotaphytus collaris collaris (Say, 1823) ;
@@ -640,7 +660,9 @@
           <t>Exemples de livrées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Crotaphytus collaris à Hovenweep National Monument, États-Unis
@@ -677,7 +699,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Axtell &amp; Webb, 1995 : Two new Crotaphytus from Southern Coahuila and the adjacent states of east-central Mexico. Bulletin of the Chicago Academy of Sciences, vol. 16, no 2, p. 1-15.
 Fitch &amp; Tanner, 1951 : Remarks concerning the systematics of the collard lizard, (Crotaphytus collaris), with a description of a new subspecies. Transactions of the Kansas Academy of Sciences, vol. 54, no 4, p. 548-559.
